--- a/biology/Zoologie/Callinema_ornata/Callinema_ornata.xlsx
+++ b/biology/Zoologie/Callinema_ornata/Callinema_ornata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phacellophora camtschatica est une espèce de méduses de la famille des Phacellophoridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Phacellophora camtschatica se rencontre dans l'Arctique, le Pacifique, l'Atlantique et dans l'Ouest de l'océan Indien[1]. Cette espèce est présente entre 50 et 330 m de profondeur[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phacellophora camtschatica se rencontre dans l'Arctique, le Pacifique, l'Atlantique et dans l'Ouest de l'océan Indien. Cette espèce est présente entre 50 et 330 m de profondeur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle peut mesurer jusqu'à 60 cm[1] de diamètre et ses tentacules peuvent atteindre une longueur de 6 m.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle peut mesurer jusqu'à 60 cm de diamètre et ses tentacules peuvent atteindre une longueur de 6 m.
 </t>
         </is>
       </c>
@@ -575,8 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Phacellophora camtschatica se nourrit principalement de zooplancton gélatineux et de méduses plus petites, qui sont prises au piège dans les tentacules[2]. Les tentacules contiennent des nématocystes, qui aident à capturer les proies. Ces structures assurent également une défense contre la prédation. Les aliments retenus dans les tentacules sont alors recouverts de mucus, puis ces tentacules sont amenés à la bouche par les lobes buccaux. Les aliments sont ensuite digérés par les enzymes digestives de la cavité gastrovasculaire. La nourriture décomposée est ensuite distribuée dans toute la méduse par action ciliaire[3].
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phacellophora camtschatica se nourrit principalement de zooplancton gélatineux et de méduses plus petites, qui sont prises au piège dans les tentacules. Les tentacules contiennent des nématocystes, qui aident à capturer les proies. Ces structures assurent également une défense contre la prédation. Les aliments retenus dans les tentacules sont alors recouverts de mucus, puis ces tentacules sont amenés à la bouche par les lobes buccaux. Les aliments sont ensuite digérés par les enzymes digestives de la cavité gastrovasculaire. La nourriture décomposée est ensuite distribuée dans toute la méduse par action ciliaire.
 </t>
         </is>
       </c>
@@ -605,15 +626,51 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Phacellophora camtschatica Brandt, 1835[4].
-Phacellophora camtschatica a pour synonymes[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Phacellophora camtschatica Brandt, 1835.
+Phacellophora camtschatica a pour synonymes :
 Callinema ornata Verrill, 1869
 Cyanea ambiguum Brandt, 1838
-Phacellophora sicula Haeckel, 1880
-Publication originale
-(la) Johanne Friderico Brandt, « Prodromus descriptionis animalium ab H. Mertensio observatorum : fascic. I. Polypos, Acalephas Discophoras et Siphonophoras, nec non Echinodermata continens », Recueil des Actes de la Séance Publique de l'Académie Impériale des Sciences de St.Petersbourg, vol. 1834,‎ mai 1835, p. 201-275 (lire en ligne, consulté le 12 avril 2024).</t>
+Phacellophora sicula Haeckel, 1880</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callinema_ornata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callinema_ornata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(la) Johanne Friderico Brandt, « Prodromus descriptionis animalium ab H. Mertensio observatorum : fascic. I. Polypos, Acalephas Discophoras et Siphonophoras, nec non Echinodermata continens », Recueil des Actes de la Séance Publique de l'Académie Impériale des Sciences de St.Petersbourg, vol. 1834,‎ mai 1835, p. 201-275 (lire en ligne, consulté le 12 avril 2024).</t>
         </is>
       </c>
     </row>
